--- a/src/test/resources/testData/addEmp.xlsx
+++ b/src/test/resources/testData/addEmp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carbon\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39AD2147-40BF-41DC-BD8E-CF06DD6BA953}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3496F436-A13A-40D9-A912-F800DFEDB3C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="456" yWindow="372" windowWidth="10908" windowHeight="10500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,31 +48,31 @@
     <t>Hkjskdifk65j#</t>
   </si>
   <si>
-    <t>Fatihewwia</t>
-  </si>
-  <si>
-    <t>Tetimbbamk</t>
-  </si>
-  <si>
-    <t>Nckllvvmirrbbcmn8</t>
-  </si>
-  <si>
-    <t>Abuztttaurn</t>
-  </si>
-  <si>
-    <t>Kilaaytrrwn</t>
-  </si>
-  <si>
-    <t>Ksufcawwnniilscz7</t>
-  </si>
-  <si>
-    <t>Ldjcdwrbbb75lgmx</t>
-  </si>
-  <si>
-    <t>Tudowxddd</t>
-  </si>
-  <si>
-    <t>Igaxxwmh</t>
+    <t>Fatih</t>
+  </si>
+  <si>
+    <t>Terim</t>
+  </si>
+  <si>
+    <t>Abuzer</t>
+  </si>
+  <si>
+    <t>Kilkuyruk</t>
+  </si>
+  <si>
+    <t>Igor</t>
+  </si>
+  <si>
+    <t>Tudor</t>
+  </si>
+  <si>
+    <t>Nckllvzzirxcjjcmn8</t>
+  </si>
+  <si>
+    <t>Ksufcazznnilk75fz7</t>
+  </si>
+  <si>
+    <t>Ldjcqwrbib475lmx</t>
   </si>
 </sst>
 </file>
@@ -393,7 +393,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -426,7 +426,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -434,13 +434,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
@@ -448,13 +448,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
         <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
